--- a/data_processed/20250812/BTCUSDVOLSURFACE_REGULARIZED_20250812.xlsx
+++ b/data_processed/20250812/BTCUSDVOLSURFACE_REGULARIZED_20250812.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -6724,7 +6724,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -6782,7 +6782,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -6948,7 +6948,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -6977,7 +6977,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -7006,7 +7006,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -18578,7 +18578,7 @@
       </c>
       <c r="G713" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -22440,7 +22440,7 @@
       </c>
       <c r="G867" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -33938,7 +33938,7 @@
       </c>
       <c r="G1325" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -34853,7 +34853,7 @@
       </c>
       <c r="G1360" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -35904,7 +35904,7 @@
       </c>
       <c r="G1399" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -36220,7 +36220,7 @@
       </c>
       <c r="G1411" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -36249,7 +36249,7 @@
       </c>
       <c r="G1412" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -36423,7 +36423,7 @@
       </c>
       <c r="G1418" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -36626,7 +36626,7 @@
       </c>
       <c r="G1425" t="inlineStr">
         <is>
-          <t>CS,BF,CA</t>
+          <t>BF,CS,CA</t>
         </is>
       </c>
     </row>
@@ -37699,7 +37699,7 @@
       </c>
       <c r="G1466" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -37757,7 +37757,7 @@
       </c>
       <c r="G1468" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>
@@ -42723,7 +42723,7 @@
       </c>
       <c r="G1658" t="inlineStr">
         <is>
-          <t>CS,BF</t>
+          <t>BF,CS</t>
         </is>
       </c>
     </row>

--- a/data_processed/20250812/BTCUSDVOLSURFACE_REGULARIZED_20250812.xlsx
+++ b/data_processed/20250812/BTCUSDVOLSURFACE_REGULARIZED_20250812.xlsx
@@ -495,7 +495,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -553,7 +553,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -18383,7 +18383,7 @@
       </c>
       <c r="G706" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -18549,7 +18549,7 @@
       </c>
       <c r="G712" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -18578,7 +18578,7 @@
       </c>
       <c r="G713" t="inlineStr">
         <is>
-          <t>BF,CS,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -22440,7 +22440,7 @@
       </c>
       <c r="G867" t="inlineStr">
         <is>
-          <t>BF,CS,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -34600,7 +34600,7 @@
       </c>
       <c r="G1351" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -34687,7 +34687,7 @@
       </c>
       <c r="G1354" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -34824,7 +34824,7 @@
       </c>
       <c r="G1359" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -35365,7 +35365,7 @@
       </c>
       <c r="G1380" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -35394,7 +35394,7 @@
       </c>
       <c r="G1381" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35423,7 +35423,7 @@
       </c>
       <c r="G1382" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -35510,7 +35510,7 @@
       </c>
       <c r="G1385" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35597,7 +35597,7 @@
       </c>
       <c r="G1388" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -35655,7 +35655,7 @@
       </c>
       <c r="G1390" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35684,7 +35684,7 @@
       </c>
       <c r="G1391" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -35904,7 +35904,7 @@
       </c>
       <c r="G1399" t="inlineStr">
         <is>
-          <t>BF,CS,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -36220,7 +36220,7 @@
       </c>
       <c r="G1411" t="inlineStr">
         <is>
-          <t>BF,CS,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -36249,7 +36249,7 @@
       </c>
       <c r="G1412" t="inlineStr">
         <is>
-          <t>BF,CS,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -36278,7 +36278,7 @@
       </c>
       <c r="G1413" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -36423,7 +36423,7 @@
       </c>
       <c r="G1418" t="inlineStr">
         <is>
-          <t>BF,CS,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -36452,7 +36452,7 @@
       </c>
       <c r="G1419" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -36626,7 +36626,7 @@
       </c>
       <c r="G1425" t="inlineStr">
         <is>
-          <t>BF,CS,CA</t>
+          <t>CA,BF,CS</t>
         </is>
       </c>
     </row>
@@ -37475,7 +37475,7 @@
       </c>
       <c r="G1458" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -37504,7 +37504,7 @@
       </c>
       <c r="G1459" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -37562,7 +37562,7 @@
       </c>
       <c r="G1461" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38177,7 +38177,7 @@
       </c>
       <c r="G1484" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38347,7 +38347,7 @@
       </c>
       <c r="G1490" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -38579,7 +38579,7 @@
       </c>
       <c r="G1498" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -38662,7 +38662,7 @@
       </c>
       <c r="G1501" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -38691,7 +38691,7 @@
       </c>
       <c r="G1502" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41432,7 +41432,7 @@
       </c>
       <c r="G1611" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41461,7 +41461,7 @@
       </c>
       <c r="G1612" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41519,7 +41519,7 @@
       </c>
       <c r="G1614" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41577,7 +41577,7 @@
       </c>
       <c r="G1616" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41664,7 +41664,7 @@
       </c>
       <c r="G1619" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41693,7 +41693,7 @@
       </c>
       <c r="G1620" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41751,7 +41751,7 @@
       </c>
       <c r="G1622" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -41780,7 +41780,7 @@
       </c>
       <c r="G1623" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -42694,7 +42694,7 @@
       </c>
       <c r="G1657" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
@@ -42810,7 +42810,7 @@
       </c>
       <c r="G1661" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -42926,7 +42926,7 @@
       </c>
       <c r="G1665" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -43758,7 +43758,7 @@
       </c>
       <c r="G1697" t="inlineStr">
         <is>
-          <t>CS,CA</t>
+          <t>CA,CS</t>
         </is>
       </c>
     </row>
@@ -43928,7 +43928,7 @@
       </c>
       <c r="G1703" t="inlineStr">
         <is>
-          <t>BF,CA</t>
+          <t>CA,BF</t>
         </is>
       </c>
     </row>
